--- a/untranslated/downloads/data-excel/7.3.1.1.xlsx
+++ b/untranslated/downloads/data-excel/7.3.1.1.xlsx
@@ -226,7 +226,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,6 +281,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -589,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -603,7 +606,7 @@
     <col min="6" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="11" customFormat="1" ht="32.25" customHeight="1">
+    <row r="1" spans="1:17" s="11" customFormat="1" ht="32.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -614,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="11" customFormat="1" ht="14.25" customHeight="1">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -625,12 +628,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="11" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:16" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:17" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -679,8 +682,11 @@
       <c r="P4" s="15">
         <v>2019</v>
       </c>
+      <c r="Q4" s="19">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="5" spans="1:17" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -729,8 +735,11 @@
       <c r="P5" s="7">
         <v>21.6</v>
       </c>
+      <c r="Q5" s="7">
+        <v>21.8</v>
+      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="B7" s="17"/>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/7.3.1.1.xlsx
+++ b/untranslated/downloads/data-excel/7.3.1.1.xlsx
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,7 +606,7 @@
     <col min="6" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1" ht="32.25" customHeight="1">
+    <row r="1" spans="1:18" s="11" customFormat="1" ht="32.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -617,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="14.25" customHeight="1">
+    <row r="2" spans="1:18" s="11" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -628,12 +628,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" s="11" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:17" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:18" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -685,8 +685,11 @@
       <c r="Q4" s="19">
         <v>2020</v>
       </c>
+      <c r="R4" s="19">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="5" spans="1:18" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -738,8 +741,11 @@
       <c r="Q5" s="7">
         <v>21.8</v>
       </c>
+      <c r="R5" s="8">
+        <v>18.953297329007047</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="B7" s="17"/>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/7.3.1.1.xlsx
+++ b/untranslated/downloads/data-excel/7.3.1.1.xlsx
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="S7" sqref="S7:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,7 +606,7 @@
     <col min="6" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="11" customFormat="1" ht="32.25" customHeight="1">
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="32.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -617,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="11" customFormat="1" ht="14.25" customHeight="1">
+    <row r="2" spans="1:19" s="11" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -628,12 +628,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="11" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:18" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -688,8 +688,11 @@
       <c r="R4" s="19">
         <v>2021</v>
       </c>
+      <c r="S4" s="19">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -736,16 +739,19 @@
         <v>25.5</v>
       </c>
       <c r="P5" s="7">
-        <v>21.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q5" s="7">
-        <v>21.8</v>
+        <v>20.5</v>
       </c>
       <c r="R5" s="8">
-        <v>18.953297329007047</v>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="S5" s="8">
+        <v>13.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="B7" s="17"/>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/7.3.1.1.xlsx
+++ b/untranslated/downloads/data-excel/7.3.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Наименование показателей</t>
   </si>
@@ -76,6 +76,105 @@
   <si>
     <t>Energy intensity of GDP at current market prices</t>
   </si>
+  <si>
+    <t>Айыл чарба, токой чарбасы жана балык уулоо</t>
+  </si>
+  <si>
+    <t>Сельское хозяйство, лесное хозяйство и рыболовство</t>
+  </si>
+  <si>
+    <t>Agriculture, forestry and fishing</t>
+  </si>
+  <si>
+    <t>Тоо-кен өнөр жайы</t>
+  </si>
+  <si>
+    <t>Горнодобывающая промышленность</t>
+  </si>
+  <si>
+    <t>Mining industry</t>
+  </si>
+  <si>
+    <t>Электр энергиясы, газ, буу жана кондицияланган аба менен камсыз кылуу</t>
+  </si>
+  <si>
+    <t>Обеспечение электроэнергией, газом, паром и кондицинированным воздухом</t>
+  </si>
+  <si>
+    <t>Provision of electricity, gas, steam and conditioned air</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2019-жылдан баштап маалыматтар, 2008 жылдагы Улуттук Эсептер Тутумунун эл аралык стандарттарына ылайык эсептелген </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Данные с 2019 года рассчитаны по международному стандарту Системы Национальных Счетов 2008 года</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Data from 2019 are calculated according to the international standard of the System of National Accounts 2008</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -84,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,14 +240,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -168,6 +259,39 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -178,7 +302,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -219,14 +343,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,25 +382,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -276,20 +406,83 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
+    <cellStyle name="Normal_GDP1" xfId="5"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 11" xfId="6"/>
     <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Обычный 3" xfId="1"/>
+    <cellStyle name="Обычный 4" xfId="4"/>
     <cellStyle name="Обычный 6" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,48 +785,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7:S8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="34.85546875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="3" width="34.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="11" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:20" s="6" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:20" s="6" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+    <row r="3" spans="1:20" s="6" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:20" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -643,116 +834,416 @@
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="9">
         <v>2007</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="9">
         <v>2008</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="9">
         <v>2009</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="9">
         <v>2010</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="9">
         <v>2011</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="10">
         <v>2012</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="10">
         <v>2013</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="10">
         <v>2014</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="9">
         <v>2015</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="10">
         <v>2016</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="10">
         <v>2017</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="10">
         <v>2018</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="10">
         <v>2019</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="13">
         <v>2020</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="13">
         <v>2021</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="13">
         <v>2022</v>
       </c>
+      <c r="T4" s="13">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:20" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="22">
         <v>78.2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="22">
         <v>54.3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="23">
         <v>48.7</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="23">
         <v>45.5</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="24">
         <v>42</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="23">
         <v>35.299999999999997</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="23">
         <v>31.4</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="23">
         <v>26.1</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="22">
         <v>26.7</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="24">
         <v>22</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="23">
         <v>25.3</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="23">
         <v>25.5</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="23">
         <v>20.5</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="23">
         <v>20.5</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="23">
         <v>17.899999999999999</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="24">
         <v>13.5</v>
       </c>
+      <c r="T5" s="24">
+        <v>10.548986676463752</v>
+      </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="B7" s="17"/>
+    <row r="6" spans="1:20" s="19" customFormat="1" ht="24">
+      <c r="A6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="J6" s="25">
+        <v>1.4</v>
+      </c>
+      <c r="K6" s="25">
+        <v>1.4</v>
+      </c>
+      <c r="L6" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M6" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N6" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O6" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P6" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="R6" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="28">
+        <v>0.60838488325428985</v>
+      </c>
+      <c r="T6" s="28">
+        <v>0.52772216684397011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="26">
+        <v>44.5</v>
+      </c>
+      <c r="J7" s="26">
+        <v>56.5</v>
+      </c>
+      <c r="K7" s="26">
+        <v>83.6</v>
+      </c>
+      <c r="L7" s="26">
+        <v>55.4</v>
+      </c>
+      <c r="M7" s="26">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="N7" s="26">
+        <v>22.8</v>
+      </c>
+      <c r="O7" s="26">
+        <v>30.3</v>
+      </c>
+      <c r="P7" s="26">
+        <v>23.6</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>24.4</v>
+      </c>
+      <c r="R7" s="26">
+        <v>10.6</v>
+      </c>
+      <c r="S7" s="29">
+        <v>9.7809425542123645</v>
+      </c>
+      <c r="T7" s="29">
+        <v>8.3132801458370658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A8" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="27">
+        <v>264.3</v>
+      </c>
+      <c r="J8" s="27">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="K8" s="27">
+        <v>254.1</v>
+      </c>
+      <c r="L8" s="27">
+        <v>201.4</v>
+      </c>
+      <c r="M8" s="27">
+        <v>195.8</v>
+      </c>
+      <c r="N8" s="27">
+        <v>174.5</v>
+      </c>
+      <c r="O8" s="27">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="P8" s="27">
+        <v>149.5</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>146.5</v>
+      </c>
+      <c r="R8" s="27">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="S8" s="30">
+        <v>125.75892934584627</v>
+      </c>
+      <c r="T8" s="30">
+        <v>118.53273752919056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="45">
+      <c r="A9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
